--- a/BD/Modelo de Relacion SC360.xlsx
+++ b/BD/Modelo de Relacion SC360.xlsx
@@ -207,35 +207,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="D50" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Luis Antony Garcia:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-     SELECT 
-          EXP,
-          ENTIDADQUEAPELA,
-          MOTIVOAPELACION 
-     FROM SEYCI
-     WHERE EXP = INIDSOLICITUD;</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="B77" authorId="0" shapeId="0">
       <text>
         <r>
@@ -266,6 +237,35 @@
      RESPONSABLE ,
      OBSERVACIONES 
      FROM REEVALUACION WHERE NROEXPSEYCI= INIDSOLICITUD;</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B89" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Luis Antony Garcia:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+     SELECT 
+          EXP,
+          ENTIDADQUEAPELA,
+          MOTIVOAPELACION 
+     FROM SEYCI
+     WHERE EXP = INIDSOLICITUD;</t>
         </r>
       </text>
     </comment>
@@ -322,7 +322,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="480">
   <si>
     <t>SEYCI</t>
   </si>
@@ -4537,6 +4537,4027 @@
         <family val="3"/>
       </rPr>
       <t>"ASD"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: {</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF565656"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"nroExpR"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF565656"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>value</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"107030"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: {</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF565656"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"txtFechaIngresoBen"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF565656"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>value</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"08/07/2019"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: {</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF565656"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"sltipoDoc"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF565656"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>value</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"01"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: {</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF565656"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"fechaEvaluacion"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF565656"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>value</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"08/07/2019"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: {</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF565656"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"txtAnalista"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF565656"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>value</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"asd"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: {</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF565656"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"fechaNotificacion"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF565656"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>value</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"08/07/2019"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: {</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF565656"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"txtResponsable"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF565656"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>value</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"asd"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: {</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF565656"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"txtObservaciones"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF565656"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>value</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>" asd"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">           FECHARECEPCION1 = INFECRECAFP,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           FECHADEEMISION1 = INFECEMISION,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           ENTIDADEVALUADORA1 = ININSTANCIA,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           NRODEEVALUACION1 = INNROEVALUACION,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           NRODICTAMENCOMAFP = INDICTAMEN,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           PORCMENOSCABOASIGNADO1 = INPORCMENOSCABO,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           CALIFICA = INCALIFICA,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           CALIFICACIONINVALIDEZ1 = ININDENF,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           INDICADORDEDEFINITIVO1 = INDEFINITIVO,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           GRADO2 = INGRADO,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           NATURALEZA1 = INNATURALEZA,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           MESES1 = INMESES,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           FECHAFINVIGENCIA1 = INFECFINAL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           FECHAOCURRENCIA1 = INFECOCURRENCIA,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           FECHAPROXIMAEVALUACION1 = INPROXIMAEVALUACION,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           FECHANOTIFAFILIADO = INFECNOTIFICACION,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           FECHARECEPCNOTAFILIADO = INFECRECNOTIFICACION,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           ANALISTA = INANALISTA,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           OBSERVACION = INOBSERVACIONES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        WHERE EXP = INNROEXPSEYCI;</t>
+  </si>
+  <si>
+    <t>fechaRecepcion</t>
+  </si>
+  <si>
+    <t>fechaEmision</t>
+  </si>
+  <si>
+    <t>txtNroEvaluacion</t>
+  </si>
+  <si>
+    <t>txtNroDictamen</t>
+  </si>
+  <si>
+    <t>txtProcentajeMenoC</t>
+  </si>
+  <si>
+    <t>txtCalifica</t>
+  </si>
+  <si>
+    <t>txtDefinitivo</t>
+  </si>
+  <si>
+    <t>txtGrado</t>
+  </si>
+  <si>
+    <t>txtNaturaleza</t>
+  </si>
+  <si>
+    <t>txtMeses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           FECHAINICIOVIGENCIA1= INFECINICIAL,</t>
+  </si>
+  <si>
+    <t>fechaProxEvaluacion</t>
+  </si>
+  <si>
+    <t>fechaIniVigencia</t>
+  </si>
+  <si>
+    <t>fechaFinVigencia</t>
+  </si>
+  <si>
+    <t>fechaOcurrencia</t>
+  </si>
+  <si>
+    <t>fechaNotificacionAfi</t>
+  </si>
+  <si>
+    <t>fechaRecpNoti</t>
+  </si>
+  <si>
+    <t>txtAnalista</t>
+  </si>
+  <si>
+    <t>txtInstancia</t>
+  </si>
+  <si>
+    <t>txtInvalidez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "Califica": "",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "FecNotificacion": "",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "FecRecNotificacion": "",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "Analista": "",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "Observaciones": "",</t>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: {</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF565656"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"nroExpD"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF565656"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>value</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"107030"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: {</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF565656"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"fechaRecepcion"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF565656"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>value</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"16/04/2019"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: {</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF565656"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"fechaEmision"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF565656"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>value</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"11/04/2019"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: {</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF565656"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"txtInstancia"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF565656"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>value</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"COMAFP"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: {</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF565656"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"txtNroEvaluacion"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF565656"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>value</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"2"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: {</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF565656"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"txtNroDictamen"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF565656"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>value</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"01387-2019"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: {</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF565656"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"txtProcentajeMenoC"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF565656"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>value</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"10"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: {</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF565656"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"txtCalifica"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF565656"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>value</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"02"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: {</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF565656"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"txtInvalidez"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF565656"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>value</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"NO Invalidez y NO C"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: {</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF565656"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"txtDefinitivo"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF565656"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>value</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"No"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: {</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF565656"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"txtGrado"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF565656"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>value</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"asd"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: {</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF565656"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"txtNaturaleza"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF565656"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>value</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"asd"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>13</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: {</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF565656"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"txtMeses"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF565656"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>value</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"0"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>14</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: {</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF565656"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"fechaIniVigencia"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF565656"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>value</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"08/07/2019"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: {</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF565656"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"fechaFinVigencia"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF565656"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>value</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"08/07/2019"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>16</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: {</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF565656"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"fechaOcurrencia"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF565656"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>value</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"27/06/2017"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>17</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: {</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF565656"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"fechaProxEvaluacion"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF565656"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>value</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"asd"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>18</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: {</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF565656"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"fechaNotificacionAfi"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF565656"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>value</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"08/07/2019"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>19</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: {</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF565656"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"fechaRecpNoti"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF565656"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>value</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"08/07/2019"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: {</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF565656"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"txtAnalista"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF565656"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>value</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"asd"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <t>Form</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>txtMotivoApela</t>
+  </si>
+  <si>
+    <t>txtPersonaApela</t>
+  </si>
+  <si>
+    <t>IN INNROEXPSEYCI VARCHAR(100) ,</t>
+  </si>
+  <si>
+    <t>IN INNRODICTAMENAPELADO VARCHAR(100) ,</t>
+  </si>
+  <si>
+    <t>IN INPERSONAAPELA VARCHAR(100) ,</t>
+  </si>
+  <si>
+    <t>IN INFECHAAPELACION VARCHAR(100) ,</t>
+  </si>
+  <si>
+    <t>IN INFECINGBENEFICIOS VARCHAR(100) ,</t>
+  </si>
+  <si>
+    <t>IN INFECENVIOCARTA VARCHAR(100) ,</t>
+  </si>
+  <si>
+    <t>IN INRECEPCIONCOMAFP VARCHAR(100) ,</t>
+  </si>
+  <si>
+    <t>IN INANALISTA VARCHAR(100) ,</t>
+  </si>
+  <si>
+    <t>IN INMOTIVOAPELACION VARCHAR(100) ,</t>
+  </si>
+  <si>
+    <t>IN INNROEXPDICTAMEN VARCHAR(100) ,</t>
+  </si>
+  <si>
+    <t>IN INDISPACIFICO VARCHAR(100) ,</t>
+  </si>
+  <si>
+    <t>IN INFECHADICTAMEN VARCHAR(100) ,</t>
+  </si>
+  <si>
+    <t>IN INFECHAENVIODIS VARCHAR(100) ,</t>
+  </si>
+  <si>
+    <t>IN INOK VARCHAR(100) ,</t>
+  </si>
+  <si>
+    <t>IN INFECHANOTIFICACIONAFILIADO VARCHAR(100) ,</t>
+  </si>
+  <si>
+    <t>IN INFECHANOTIFICACIONCOMEC VARCHAR(100) ,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IN INOBSERVACIONES VARCHAR(100) </t>
+  </si>
+  <si>
+    <t>nroExpA</t>
+  </si>
+  <si>
+    <t>txtNroDictamenApelado</t>
+  </si>
+  <si>
+    <t>fechaApelacion</t>
+  </si>
+  <si>
+    <t>fechaIngBeneficios</t>
+  </si>
+  <si>
+    <t>fechaEnvCarta</t>
+  </si>
+  <si>
+    <t>txtRecepCOMAFP</t>
+  </si>
+  <si>
+    <t>txtNroDictamentApelado</t>
+  </si>
+  <si>
+    <t>txtDIS_PACIFICO</t>
+  </si>
+  <si>
+    <t>fechaDictamen</t>
+  </si>
+  <si>
+    <t>fechaEnvioDIS</t>
+  </si>
+  <si>
+    <t>fechaNotiAfiliado</t>
+  </si>
+  <si>
+    <t>fechaNotiCOMEC</t>
+  </si>
+  <si>
+    <t>Observaciones</t>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: {</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF565656"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"nroExpA"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF565656"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>value</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"112408"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: {</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF565656"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"txtNroDictamenApelado"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF565656"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>value</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"asd"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: {</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF565656"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"txtPersonaApela"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF565656"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>value</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"Afiliado"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: {</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF565656"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"fechaApelacion"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF565656"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>value</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"08/07/2019"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: {</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF565656"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"fechaIngBeneficios"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF565656"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>value</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"08/07/2019"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: {</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF565656"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"fechaEnvCarta"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF565656"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>value</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"08/07/2019"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: {</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF565656"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"txtRecepCOMAFP"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF565656"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>value</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"asd"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: {</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF565656"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"txtAnalista"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF565656"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>value</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"asd"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: {</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF565656"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"txtMotivoApela"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF565656"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>value</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"Por Naturaleza de la Invalidez"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: {</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF565656"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"txtNroDictamentApelado"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF565656"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>value</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"asd"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: {</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF565656"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"txtDIS_PACIFICO"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF565656"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>value</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"asd"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: {</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF565656"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"fechaDictamen"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF565656"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>value</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"08/07/2019"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>13</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: {</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF565656"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"fechaEnvioDIS"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF565656"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>value</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"08/07/2019"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>14</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: {</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF565656"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"fechaNotiAfiliado"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF565656"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>value</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"08/07/2019"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: {</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF565656"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"fechaNotiCOMEC"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF565656"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>value</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"08/07/2019"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>16</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: {</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF565656"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"Observaciones"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF565656"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>value</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF212121"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC41A16"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>""</t>
     </r>
     <r>
       <rPr>
@@ -4767,19 +8788,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -4789,6 +8798,18 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5073,8 +9094,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C80" sqref="C80"/>
+    <sheetView tabSelected="1" topLeftCell="D89" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E91" sqref="E91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5082,21 +9103,21 @@
     <col min="1" max="1" width="33.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="62.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="71.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="58.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="77.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="60.140625" customWidth="1"/>
     <col min="7" max="7" width="54.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="22" t="s">
         <v>167</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="18" t="s">
+      <c r="C1" s="24"/>
+      <c r="D1" s="22" t="s">
         <v>166</v>
       </c>
-      <c r="E1" s="17"/>
+      <c r="E1" s="24"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -5157,7 +9178,7 @@
       <c r="F4" s="11" t="s">
         <v>267</v>
       </c>
-      <c r="G4" s="25" t="s">
+      <c r="G4" s="21" t="s">
         <v>271</v>
       </c>
     </row>
@@ -5178,7 +9199,7 @@
         <v>141</v>
       </c>
       <c r="F5" s="14"/>
-      <c r="G5" s="25" t="s">
+      <c r="G5" s="21" t="s">
         <v>272</v>
       </c>
     </row>
@@ -5224,7 +9245,7 @@
       <c r="F7" s="11" t="s">
         <v>263</v>
       </c>
-      <c r="G7" s="25" t="s">
+      <c r="G7" s="21" t="s">
         <v>273</v>
       </c>
     </row>
@@ -5247,7 +9268,7 @@
       <c r="F8" s="11" t="s">
         <v>237</v>
       </c>
-      <c r="G8" s="24" t="s">
+      <c r="G8" s="20" t="s">
         <v>274</v>
       </c>
     </row>
@@ -5270,7 +9291,7 @@
       <c r="F9" s="11" t="s">
         <v>238</v>
       </c>
-      <c r="G9" s="25" t="s">
+      <c r="G9" s="21" t="s">
         <v>288</v>
       </c>
     </row>
@@ -5293,7 +9314,7 @@
       <c r="F10" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="G10" s="25" t="s">
+      <c r="G10" s="21" t="s">
         <v>275</v>
       </c>
     </row>
@@ -5316,7 +9337,7 @@
       <c r="F11" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="G11" s="25" t="s">
+      <c r="G11" s="21" t="s">
         <v>276</v>
       </c>
     </row>
@@ -5339,7 +9360,7 @@
       <c r="F12" s="11" t="s">
         <v>264</v>
       </c>
-      <c r="G12" s="25" t="s">
+      <c r="G12" s="21" t="s">
         <v>277</v>
       </c>
     </row>
@@ -5362,7 +9383,7 @@
       <c r="F13" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="G13" s="25" t="s">
+      <c r="G13" s="21" t="s">
         <v>278</v>
       </c>
     </row>
@@ -5382,7 +9403,7 @@
       <c r="F14" s="11" t="s">
         <v>266</v>
       </c>
-      <c r="G14" s="24" t="s">
+      <c r="G14" s="20" t="s">
         <v>279</v>
       </c>
     </row>
@@ -5405,7 +9426,7 @@
       <c r="F15" s="11" t="s">
         <v>268</v>
       </c>
-      <c r="G15" s="25" t="s">
+      <c r="G15" s="21" t="s">
         <v>280</v>
       </c>
     </row>
@@ -5422,7 +9443,7 @@
       <c r="F16" s="11" t="s">
         <v>269</v>
       </c>
-      <c r="G16" s="24" t="s">
+      <c r="G16" s="20" t="s">
         <v>281</v>
       </c>
     </row>
@@ -5436,7 +9457,7 @@
       <c r="F17" t="s">
         <v>270</v>
       </c>
-      <c r="G17" s="24" t="s">
+      <c r="G17" s="20" t="s">
         <v>282</v>
       </c>
     </row>
@@ -5450,7 +9471,7 @@
       <c r="F18" s="11" t="s">
         <v>241</v>
       </c>
-      <c r="G18" s="25" t="s">
+      <c r="G18" s="21" t="s">
         <v>283</v>
       </c>
     </row>
@@ -5464,7 +9485,7 @@
       <c r="C19" t="s">
         <v>163</v>
       </c>
-      <c r="G19" s="24" t="s">
+      <c r="G19" s="20" t="s">
         <v>284</v>
       </c>
     </row>
@@ -5478,7 +9499,7 @@
       <c r="C20" t="s">
         <v>164</v>
       </c>
-      <c r="G20" s="25" t="s">
+      <c r="G20" s="21" t="s">
         <v>285</v>
       </c>
     </row>
@@ -5492,7 +9513,7 @@
       <c r="C21" t="s">
         <v>165</v>
       </c>
-      <c r="G21" s="25" t="s">
+      <c r="G21" s="21" t="s">
         <v>286</v>
       </c>
     </row>
@@ -5513,10 +9534,10 @@
       <c r="A24" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="21" t="s">
+      <c r="B24" s="23" t="s">
         <v>192</v>
       </c>
-      <c r="C24" s="20"/>
+      <c r="C24" s="25"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
@@ -5525,7 +9546,7 @@
       <c r="B25" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="C25" s="23" t="s">
+      <c r="C25" s="19" t="s">
         <v>170</v>
       </c>
       <c r="D25" t="s">
@@ -5545,7 +9566,7 @@
       <c r="E26" t="s">
         <v>313</v>
       </c>
-      <c r="G26" s="24" t="s">
+      <c r="G26" s="20" t="s">
         <v>337</v>
       </c>
     </row>
@@ -5562,7 +9583,7 @@
       <c r="E27" t="s">
         <v>314</v>
       </c>
-      <c r="G27" s="24" t="s">
+      <c r="G27" s="20" t="s">
         <v>338</v>
       </c>
     </row>
@@ -5579,7 +9600,7 @@
       <c r="E28" t="s">
         <v>312</v>
       </c>
-      <c r="G28" s="24" t="s">
+      <c r="G28" s="20" t="s">
         <v>339</v>
       </c>
     </row>
@@ -5599,7 +9620,7 @@
       <c r="F29" t="s">
         <v>316</v>
       </c>
-      <c r="G29" s="24" t="s">
+      <c r="G29" s="20" t="s">
         <v>340</v>
       </c>
     </row>
@@ -5616,7 +9637,7 @@
       <c r="E30" t="s">
         <v>317</v>
       </c>
-      <c r="G30" s="24" t="s">
+      <c r="G30" s="20" t="s">
         <v>341</v>
       </c>
     </row>
@@ -5636,7 +9657,7 @@
       <c r="F31" t="s">
         <v>319</v>
       </c>
-      <c r="G31" s="24" t="s">
+      <c r="G31" s="20" t="s">
         <v>342</v>
       </c>
     </row>
@@ -5656,7 +9677,7 @@
       <c r="F32" t="s">
         <v>319</v>
       </c>
-      <c r="G32" s="24" t="s">
+      <c r="G32" s="20" t="s">
         <v>343</v>
       </c>
     </row>
@@ -5673,7 +9694,7 @@
       <c r="E33" t="s">
         <v>321</v>
       </c>
-      <c r="G33" s="24" t="s">
+      <c r="G33" s="20" t="s">
         <v>344</v>
       </c>
     </row>
@@ -5693,7 +9714,7 @@
       <c r="F34" t="s">
         <v>324</v>
       </c>
-      <c r="G34" s="24" t="s">
+      <c r="G34" s="20" t="s">
         <v>345</v>
       </c>
     </row>
@@ -5710,10 +9731,10 @@
       <c r="E35" t="s">
         <v>323</v>
       </c>
-      <c r="F35" s="22" t="s">
+      <c r="F35" s="18" t="s">
         <v>325</v>
       </c>
-      <c r="G35" s="24" t="s">
+      <c r="G35" s="20" t="s">
         <v>346</v>
       </c>
     </row>
@@ -5730,7 +9751,7 @@
       <c r="E36" t="s">
         <v>326</v>
       </c>
-      <c r="G36" s="24" t="s">
+      <c r="G36" s="20" t="s">
         <v>347</v>
       </c>
     </row>
@@ -5750,7 +9771,7 @@
       <c r="F37" t="s">
         <v>324</v>
       </c>
-      <c r="G37" s="24" t="s">
+      <c r="G37" s="20" t="s">
         <v>348</v>
       </c>
     </row>
@@ -5767,7 +9788,7 @@
       <c r="E38" t="s">
         <v>328</v>
       </c>
-      <c r="G38" s="24" t="s">
+      <c r="G38" s="20" t="s">
         <v>349</v>
       </c>
     </row>
@@ -5784,7 +9805,7 @@
       <c r="E39" t="s">
         <v>329</v>
       </c>
-      <c r="G39" s="24" t="s">
+      <c r="G39" s="20" t="s">
         <v>350</v>
       </c>
     </row>
@@ -5804,7 +9825,7 @@
       <c r="F40" t="s">
         <v>324</v>
       </c>
-      <c r="G40" s="24" t="s">
+      <c r="G40" s="20" t="s">
         <v>351</v>
       </c>
     </row>
@@ -5821,7 +9842,7 @@
       <c r="E41" t="s">
         <v>331</v>
       </c>
-      <c r="G41" s="24" t="s">
+      <c r="G41" s="20" t="s">
         <v>352</v>
       </c>
     </row>
@@ -5838,7 +9859,7 @@
       <c r="E42" t="s">
         <v>332</v>
       </c>
-      <c r="G42" s="24" t="s">
+      <c r="G42" s="20" t="s">
         <v>353</v>
       </c>
     </row>
@@ -5855,7 +9876,7 @@
       <c r="E43" t="s">
         <v>333</v>
       </c>
-      <c r="G43" s="24" t="s">
+      <c r="G43" s="20" t="s">
         <v>354</v>
       </c>
     </row>
@@ -5872,7 +9893,7 @@
       <c r="E44" t="s">
         <v>334</v>
       </c>
-      <c r="G44" s="24" t="s">
+      <c r="G44" s="20" t="s">
         <v>355</v>
       </c>
     </row>
@@ -5889,7 +9910,7 @@
       <c r="E45" t="s">
         <v>335</v>
       </c>
-      <c r="G45" s="24" t="s">
+      <c r="G45" s="20" t="s">
         <v>356</v>
       </c>
     </row>
@@ -5919,21 +9940,23 @@
       <c r="A48" s="10" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F48" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="B49" s="21" t="s">
+      <c r="B49" s="23" t="s">
         <v>191</v>
       </c>
-      <c r="C49" s="21"/>
-      <c r="D49" s="18" t="s">
-        <v>207</v>
-      </c>
-      <c r="E49" s="18"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C49" s="23"/>
+      <c r="F49" s="20" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="13" t="s">
         <v>48</v>
       </c>
@@ -5943,14 +9966,11 @@
       <c r="C50" t="s">
         <v>137</v>
       </c>
-      <c r="D50" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="E50" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F50" s="20" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="13" t="s">
         <v>49</v>
       </c>
@@ -5960,14 +9980,17 @@
       <c r="C51" t="s">
         <v>173</v>
       </c>
-      <c r="D51" s="7" t="s">
-        <v>203</v>
+      <c r="D51" t="s">
+        <v>365</v>
       </c>
       <c r="E51" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+        <v>385</v>
+      </c>
+      <c r="F51" s="20" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="10" t="s">
         <v>50</v>
       </c>
@@ -5977,14 +10000,17 @@
       <c r="C52" t="s">
         <v>174</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>96</v>
+      <c r="D52" t="s">
+        <v>366</v>
       </c>
       <c r="E52" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+        <v>386</v>
+      </c>
+      <c r="F52" s="20" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="13" t="s">
         <v>51</v>
       </c>
@@ -5994,14 +10020,17 @@
       <c r="C53" t="s">
         <v>175</v>
       </c>
-      <c r="D53" s="3" t="s">
-        <v>204</v>
+      <c r="D53" t="s">
+        <v>367</v>
       </c>
       <c r="E53" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+        <v>403</v>
+      </c>
+      <c r="F53" s="20" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="13" t="s">
         <v>52</v>
       </c>
@@ -6011,11 +10040,17 @@
       <c r="C54" t="s">
         <v>176</v>
       </c>
+      <c r="D54" t="s">
+        <v>368</v>
+      </c>
       <c r="E54" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+        <v>387</v>
+      </c>
+      <c r="F54" s="20" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="13" t="s">
         <v>53</v>
       </c>
@@ -6025,8 +10060,17 @@
       <c r="C55" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D55" t="s">
+        <v>369</v>
+      </c>
+      <c r="E55" t="s">
+        <v>388</v>
+      </c>
+      <c r="F55" s="20" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="13" t="s">
         <v>54</v>
       </c>
@@ -6036,8 +10080,17 @@
       <c r="C56" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D56" t="s">
+        <v>370</v>
+      </c>
+      <c r="E56" t="s">
+        <v>389</v>
+      </c>
+      <c r="F56" s="20" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="13" t="s">
         <v>55</v>
       </c>
@@ -6047,8 +10100,17 @@
       <c r="C57" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D57" t="s">
+        <v>371</v>
+      </c>
+      <c r="E57" t="s">
+        <v>390</v>
+      </c>
+      <c r="F57" s="20" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="13" t="s">
         <v>56</v>
       </c>
@@ -6056,10 +10118,19 @@
         <v>85</v>
       </c>
       <c r="C58" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+        <v>405</v>
+      </c>
+      <c r="D58" t="s">
+        <v>372</v>
+      </c>
+      <c r="E58" t="s">
+        <v>404</v>
+      </c>
+      <c r="F58" s="20" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="13" t="s">
         <v>57</v>
       </c>
@@ -6067,10 +10138,19 @@
         <v>80</v>
       </c>
       <c r="C59" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+      <c r="D59" t="s">
+        <v>373</v>
+      </c>
+      <c r="E59" t="s">
+        <v>391</v>
+      </c>
+      <c r="F59" s="20" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="13" t="s">
         <v>58</v>
       </c>
@@ -6078,10 +10158,19 @@
         <v>82</v>
       </c>
       <c r="C60" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+        <v>181</v>
+      </c>
+      <c r="D60" t="s">
+        <v>374</v>
+      </c>
+      <c r="E60" t="s">
+        <v>392</v>
+      </c>
+      <c r="F60" s="20" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="13" t="s">
         <v>59</v>
       </c>
@@ -6089,10 +10178,19 @@
         <v>83</v>
       </c>
       <c r="C61" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+      <c r="D61" t="s">
+        <v>375</v>
+      </c>
+      <c r="E61" t="s">
+        <v>393</v>
+      </c>
+      <c r="F61" s="20" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="13" t="s">
         <v>60</v>
       </c>
@@ -6100,10 +10198,19 @@
         <v>77</v>
       </c>
       <c r="C62" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+      <c r="D62" t="s">
+        <v>376</v>
+      </c>
+      <c r="E62" t="s">
+        <v>394</v>
+      </c>
+      <c r="F62" s="20" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="13" t="s">
         <v>61</v>
       </c>
@@ -6111,10 +10218,19 @@
         <v>75</v>
       </c>
       <c r="C63" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+        <v>184</v>
+      </c>
+      <c r="D63" t="s">
+        <v>395</v>
+      </c>
+      <c r="E63" t="s">
+        <v>397</v>
+      </c>
+      <c r="F63" s="20" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="13" t="s">
         <v>62</v>
       </c>
@@ -6122,10 +10238,19 @@
         <v>76</v>
       </c>
       <c r="C64" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+      <c r="D64" t="s">
+        <v>377</v>
+      </c>
+      <c r="E64" t="s">
+        <v>398</v>
+      </c>
+      <c r="F64" s="20" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="13" t="s">
         <v>63</v>
       </c>
@@ -6133,10 +10258,19 @@
         <v>79</v>
       </c>
       <c r="C65" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+      <c r="D65" t="s">
+        <v>378</v>
+      </c>
+      <c r="E65" t="s">
+        <v>399</v>
+      </c>
+      <c r="F65" s="20" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="13" t="s">
         <v>64</v>
       </c>
@@ -6144,18 +10278,36 @@
         <v>78</v>
       </c>
       <c r="C66" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+        <v>187</v>
+      </c>
+      <c r="D66" t="s">
+        <v>379</v>
+      </c>
+      <c r="E66" t="s">
+        <v>396</v>
+      </c>
+      <c r="F66" s="20" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="13" t="s">
         <v>65</v>
       </c>
       <c r="C67" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+        <v>188</v>
+      </c>
+      <c r="D67" t="s">
+        <v>380</v>
+      </c>
+      <c r="E67" t="s">
+        <v>400</v>
+      </c>
+      <c r="F67" s="20" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="13" t="s">
         <v>66</v>
       </c>
@@ -6163,50 +10315,89 @@
         <v>1</v>
       </c>
       <c r="C68" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+        <v>406</v>
+      </c>
+      <c r="D68" t="s">
+        <v>381</v>
+      </c>
+      <c r="E68" t="s">
+        <v>401</v>
+      </c>
+      <c r="F68" s="20" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="10" t="s">
         <v>67</v>
       </c>
       <c r="B69" s="8" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C69" t="s">
+        <v>407</v>
+      </c>
+      <c r="D69" t="s">
+        <v>382</v>
+      </c>
+      <c r="E69" t="s">
+        <v>402</v>
+      </c>
+      <c r="F69" s="20" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="13" t="s">
         <v>68</v>
       </c>
       <c r="B70" s="8" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C70" t="s">
+        <v>189</v>
+      </c>
+      <c r="D70" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="13" t="s">
         <v>69</v>
       </c>
       <c r="B71" s="8" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C71" t="s">
+        <v>408</v>
+      </c>
+      <c r="D71" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="8" t="s">
         <v>70</v>
       </c>
       <c r="B72" s="8" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C72" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="8" t="s">
         <v>71</v>
       </c>
       <c r="B73" s="8" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C73" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="8" t="s">
         <v>72</v>
       </c>
@@ -6214,32 +10405,32 @@
         <v>138</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="8" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="B76" s="21" t="s">
+      <c r="B76" s="23" t="s">
         <v>193</v>
       </c>
-      <c r="C76" s="20"/>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C76" s="25"/>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="B77" s="19" t="s">
+      <c r="B77" s="17" t="s">
         <v>169</v>
       </c>
-      <c r="C77" s="23" t="s">
+      <c r="C77" s="19" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="8" t="s">
         <v>76</v>
       </c>
@@ -6249,8 +10440,11 @@
       <c r="C78" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D78" s="20" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="8" t="s">
         <v>77</v>
       </c>
@@ -6260,8 +10454,11 @@
       <c r="C79" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D79" s="20" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="8" t="s">
         <v>78</v>
       </c>
@@ -6271,8 +10468,11 @@
       <c r="C80" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D80" s="20" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="8" t="s">
         <v>79</v>
       </c>
@@ -6282,8 +10482,11 @@
       <c r="C81" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D81" s="20" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="8" t="s">
         <v>80</v>
       </c>
@@ -6293,8 +10496,11 @@
       <c r="C82" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D82" s="20" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="13" t="s">
         <v>81</v>
       </c>
@@ -6304,8 +10510,11 @@
       <c r="C83" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D83" s="20" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="8" t="s">
         <v>82</v>
       </c>
@@ -6315,8 +10524,11 @@
       <c r="C84" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D84" s="20" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="8" t="s">
         <v>83</v>
       </c>
@@ -6326,138 +10538,322 @@
       <c r="C85" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D85" s="20" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="8" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="8" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="13" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B88" s="22" t="s">
+        <v>207</v>
+      </c>
+      <c r="C88" s="22"/>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="13" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B89" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C89" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="13" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B90" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="C90" t="s">
+        <v>173</v>
+      </c>
+      <c r="F90" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="13" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B91" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C91" t="s">
+        <v>205</v>
+      </c>
+      <c r="D91" t="s">
+        <v>451</v>
+      </c>
+      <c r="E91" t="s">
+        <v>434</v>
+      </c>
+      <c r="F91" s="20" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="13" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B92" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C92" t="s">
+        <v>206</v>
+      </c>
+      <c r="D92" t="s">
+        <v>452</v>
+      </c>
+      <c r="E92" t="s">
+        <v>435</v>
+      </c>
+      <c r="F92" s="20" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="13" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D93" t="s">
+        <v>433</v>
+      </c>
+      <c r="E93" t="s">
+        <v>436</v>
+      </c>
+      <c r="F93" s="20" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="13" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D94" t="s">
+        <v>453</v>
+      </c>
+      <c r="E94" t="s">
+        <v>437</v>
+      </c>
+      <c r="F94" s="20" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="13" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D95" t="s">
+        <v>454</v>
+      </c>
+      <c r="E95" t="s">
+        <v>438</v>
+      </c>
+      <c r="F95" s="20" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="13" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D96" t="s">
+        <v>455</v>
+      </c>
+      <c r="E96" t="s">
+        <v>439</v>
+      </c>
+      <c r="F96" s="20" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D97" t="s">
+        <v>456</v>
+      </c>
+      <c r="E97" t="s">
+        <v>440</v>
+      </c>
+      <c r="F97" s="20" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D98" t="s">
+        <v>402</v>
+      </c>
+      <c r="E98" t="s">
+        <v>441</v>
+      </c>
+      <c r="F98" s="20" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="13" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D99" t="s">
+        <v>432</v>
+      </c>
+      <c r="E99" t="s">
+        <v>442</v>
+      </c>
+      <c r="F99" s="20" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="13" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D100" t="s">
+        <v>457</v>
+      </c>
+      <c r="E100" t="s">
+        <v>443</v>
+      </c>
+      <c r="F100" s="20" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="13" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D101" t="s">
+        <v>458</v>
+      </c>
+      <c r="E101" t="s">
+        <v>444</v>
+      </c>
+      <c r="F101" s="20" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="13" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D102" t="s">
+        <v>459</v>
+      </c>
+      <c r="E102" t="s">
+        <v>445</v>
+      </c>
+      <c r="F102" s="20" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="13" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D103" t="s">
+        <v>460</v>
+      </c>
+      <c r="E103" t="s">
+        <v>446</v>
+      </c>
+      <c r="F103" s="20" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="13" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E104" t="s">
+        <v>447</v>
+      </c>
+      <c r="F104" s="20" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="13" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D105" t="s">
+        <v>461</v>
+      </c>
+      <c r="E105" t="s">
+        <v>448</v>
+      </c>
+      <c r="F105" s="20" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="13" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D106" t="s">
+        <v>462</v>
+      </c>
+      <c r="E106" t="s">
+        <v>449</v>
+      </c>
+      <c r="F106" s="20" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="13" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D107" t="s">
+        <v>463</v>
+      </c>
+      <c r="E107" t="s">
+        <v>450</v>
+      </c>
+      <c r="F107" s="20" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="13" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="13" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="13" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="13" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="13" t="s">
         <v>110</v>
       </c>
@@ -6594,19 +10990,19 @@
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B88:C88"/>
     <mergeCell ref="B49:C49"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B76:C76"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1"/>
     <hyperlink ref="B49" r:id="rId2"/>
     <hyperlink ref="B24" r:id="rId3"/>
     <hyperlink ref="B76" r:id="rId4"/>
-    <hyperlink ref="D49" r:id="rId5"/>
+    <hyperlink ref="B88" r:id="rId5"/>
     <hyperlink ref="D1" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6617,10 +11013,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C139"/>
+  <dimension ref="A1:D139"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23:B38"/>
+      <selection activeCell="C22" sqref="C22:D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6794,7 +11190,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -6805,7 +11201,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -6816,12 +11212,12 @@
         <v>259</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -6832,651 +11228,1072 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C22" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
       <c r="B23" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C23" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D23" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
       <c r="B24" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C24" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D24" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
       <c r="B25" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C25" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D25" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>23</v>
       </c>
       <c r="B26" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C26" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D26" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>24</v>
       </c>
       <c r="B27" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C27" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D27" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>25</v>
       </c>
       <c r="B28" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C28" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D28" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>26</v>
       </c>
       <c r="B29" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C29" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D29" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>27</v>
       </c>
       <c r="B30" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C30" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="D30" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>28</v>
       </c>
       <c r="B31" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C31" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D31" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>29</v>
       </c>
       <c r="B32" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C32" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D32" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>30</v>
       </c>
       <c r="B33" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C33" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D33" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>31</v>
       </c>
       <c r="B34" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C34" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D34" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>32</v>
       </c>
       <c r="B35" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C35" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D35" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>33</v>
       </c>
       <c r="B36" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C36" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D36" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>34</v>
       </c>
       <c r="B37" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C37" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D37" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>35</v>
       </c>
       <c r="B38" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D38" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C39" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D39" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C40" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="D40" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C41" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="D41" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C42" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="D42" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C43" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="D43" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C44" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="D44" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D45" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D46" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D47" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D48" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D49" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D50" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D51" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D52" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D53" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D54" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D55" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D56" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D57" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D58" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D59" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D60" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D61" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D62" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D63" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D64" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D65" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D66" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D67" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D68" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D69" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D70" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D71" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D72" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D73" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D74" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D75" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D76" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D77" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D78" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D79" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D80" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D81" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D82" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D83" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D84" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D85" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D86" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D87" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D88" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D89" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D90" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D91" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D92" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D93" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D94" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D95" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D96" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D97" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D98" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D99" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D100" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D101" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D102" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D103" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D104" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D105" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D106" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D107" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D108" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D109" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D110" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D111" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D112" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D113" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D114" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D115" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D116" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D117" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D118" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D119" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D120" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D121" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D122" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D123" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D124" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D125" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D126" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D127" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D128" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D129" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D130" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D131" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D132" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D133" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D134" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D135" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D136" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D137" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D138" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>235</v>
       </c>
+      <c r="D139" t="s">
+        <v>431</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>